--- a/src/main/java/DataPackage/testdatanew.xlsx
+++ b/src/main/java/DataPackage/testdatanew.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>whitebox123</t>
+  </si>
+  <si>
+    <t>Srivastava</t>
+  </si>
+  <si>
+    <t>sri@1997</t>
   </si>
 </sst>
 </file>
@@ -326,6 +332,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
